--- a/database/tables_results.xlsx
+++ b/database/tables_results.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A5DC4C-7616-4694-A3A8-2297A67F5733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815A54DD-0538-44CD-A099-1A7EF877F03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1305" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D125BDB0-4293-46E2-833F-A63E0CB3C726}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D125BDB0-4293-46E2-833F-A63E0CB3C726}"/>
   </bookViews>
   <sheets>
-    <sheet name="ANNI" sheetId="1" r:id="rId1"/>
-    <sheet name="SDE" sheetId="2" r:id="rId2"/>
-    <sheet name="Kernel Density" sheetId="4" r:id="rId3"/>
-    <sheet name="Moran I" sheetId="3" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
+    <sheet name="Tables" sheetId="6" r:id="rId1"/>
+    <sheet name="ANNI" sheetId="1" r:id="rId2"/>
+    <sheet name="SDE" sheetId="2" r:id="rId3"/>
+    <sheet name="Kernel Density" sheetId="4" r:id="rId4"/>
+    <sheet name="Moran I" sheetId="3" r:id="rId5"/>
+    <sheet name="Querry and Colors" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="95">
   <si>
     <t>Centro turístico integralmente planeado</t>
   </si>
@@ -253,6 +254,78 @@
   </si>
   <si>
     <t>Sin color</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>majorsd (SD along the major axis)</t>
+  </si>
+  <si>
+    <t>minorsd (SD along the minor axis that is normal to the major axis)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* =p&lt;0.1; ** =p&lt;0.05;***=p&lt;0.01;  </t>
+  </si>
+  <si>
+    <t>0.346***</t>
+  </si>
+  <si>
+    <t>0.406***</t>
+  </si>
+  <si>
+    <t>0.350***</t>
+  </si>
+  <si>
+    <t>0.594***</t>
+  </si>
+  <si>
+    <t>0.242***</t>
+  </si>
+  <si>
+    <t>0.342***</t>
+  </si>
+  <si>
+    <t>0.334***</t>
+  </si>
+  <si>
+    <t>0.572***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.304**  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355**  </t>
+  </si>
+  <si>
+    <t>0.307***</t>
+  </si>
+  <si>
+    <t>0.348***</t>
+  </si>
+  <si>
+    <t>0.320***</t>
+  </si>
+  <si>
+    <t>0.550***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.284**  </t>
+  </si>
+  <si>
+    <t>Ratio Major SD to Minor SD</t>
+  </si>
+  <si>
+    <t>Table not included</t>
   </si>
 </sst>
 </file>
@@ -316,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -341,6 +414,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -655,12 +742,767 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7017A30C-24AC-44BC-BDF2-E5CDCA1CEE10}">
+  <dimension ref="A1:L61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="13">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1614</v>
+      </c>
+      <c r="C4" s="6">
+        <v>835</v>
+      </c>
+      <c r="D4" s="6">
+        <v>798</v>
+      </c>
+      <c r="F4">
+        <f>+C4/B4</f>
+        <v>0.51734820322180919</v>
+      </c>
+      <c r="G4" s="6">
+        <f>+D4-C4</f>
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>220</v>
+      </c>
+      <c r="C5" s="6">
+        <v>100</v>
+      </c>
+      <c r="D5" s="6">
+        <v>101</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F8" si="0">+C5/B5</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G9" si="1">+D5-C5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1454</v>
+      </c>
+      <c r="C6" s="6">
+        <v>377</v>
+      </c>
+      <c r="D6" s="6">
+        <v>383</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.25928473177441541</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3407</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1212</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1192</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.35573818608746699</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>528</v>
+      </c>
+      <c r="C8" s="6">
+        <v>290</v>
+      </c>
+      <c r="D8" s="6">
+        <v>314</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.5492424242424242</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <f>+SUM(B4:B8)</f>
+        <v>7223</v>
+      </c>
+      <c r="C9" s="7">
+        <f>+SUM(C4:C8)</f>
+        <v>2814</v>
+      </c>
+      <c r="D9" s="7">
+        <f>+SUM(D4:D8)</f>
+        <v>2788</v>
+      </c>
+      <c r="F9">
+        <f>+AVERAGE(F4:F8)</f>
+        <v>0.4272317999743141</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2010</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>8.3628273990000002E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.13870324948000001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.14350344462</v>
+      </c>
+      <c r="F14" s="5">
+        <f>+D14-B14</f>
+        <v>5.9875170630000002E-2</v>
+      </c>
+      <c r="G14" t="str">
+        <f>+IF(F14&gt;0,"Menor concentración", "Mayor concentración")</f>
+        <v>Menor concentración</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.28263829208000002</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.18857883464</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.18717758248999999</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F18" si="2">+D15-B15</f>
+        <v>-9.5460709590000026E-2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ref="G15:G18" si="3">+IF(F15&gt;0,"Menor concentración", "Mayor concentración")</f>
+        <v>Mayor concentración</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.14697029790999999</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.20482076231999999</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.19951699754999999</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>5.254669964E-2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>Menor concentración</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.22215493893999999</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.23639098128</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.24100285189000001</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>1.8847912950000018E-2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>Menor concentración</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.14492969207</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.14377627805000001</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.13927430689</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>-5.6553851799999999E-3</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>Mayor concentración</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2010</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2020</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="17">
+        <f>+G25/H25</f>
+        <v>3.6088940398326712</v>
+      </c>
+      <c r="C25" s="17">
+        <f>+I25/J25</f>
+        <v>3.2183714592073613</v>
+      </c>
+      <c r="D25" s="17">
+        <f>+K25/L25</f>
+        <v>3.1534368106743886</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>16465.552173390799</v>
+      </c>
+      <c r="H25" s="8">
+        <v>4562.4925508076803</v>
+      </c>
+      <c r="I25" s="8">
+        <v>17359.9159582375</v>
+      </c>
+      <c r="J25" s="8">
+        <v>5394.00630979775</v>
+      </c>
+      <c r="K25" s="8">
+        <v>17267.022256487398</v>
+      </c>
+      <c r="L25" s="8">
+        <v>5475.6201862166699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="17">
+        <f>+G26/H26</f>
+        <v>6.6120597361743743</v>
+      </c>
+      <c r="C26" s="17">
+        <f>+I26/J26</f>
+        <v>4.8599829333506213</v>
+      </c>
+      <c r="D26" s="17">
+        <f>+K26/L26</f>
+        <v>4.7597309230513662</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>4883.1514071707497</v>
+      </c>
+      <c r="H26" s="9">
+        <v>738.52197378907204</v>
+      </c>
+      <c r="I26" s="9">
+        <v>5815.1355022056196</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1196.5341405420299</v>
+      </c>
+      <c r="K26" s="9">
+        <v>5819.2898859574498</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1222.60900459197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="17">
+        <f>+G27/H27</f>
+        <v>2.7032296691042403</v>
+      </c>
+      <c r="C27" s="17">
+        <f>+I27/J27</f>
+        <v>3.188142256638129</v>
+      </c>
+      <c r="D27" s="17">
+        <f>+K27/L27</f>
+        <v>3.3228358936796218</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4154.9281811119199</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1537.0237418593899</v>
+      </c>
+      <c r="I27" s="8">
+        <v>3735.2755591965802</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1171.6150844333399</v>
+      </c>
+      <c r="K27" s="8">
+        <v>3761.6530273174199</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1132.0610309020899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="17">
+        <f>+G28/H28</f>
+        <v>1.275621476008564</v>
+      </c>
+      <c r="C28" s="17">
+        <f>+I28/J28</f>
+        <v>1.100724977054609</v>
+      </c>
+      <c r="D28" s="17">
+        <f>+K28/L28</f>
+        <v>1.0978055243235845</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="8">
+        <v>3529.56962428834</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2766.9412052644402</v>
+      </c>
+      <c r="I28" s="8">
+        <v>4425.9556626634603</v>
+      </c>
+      <c r="J28" s="8">
+        <v>4020.9459719054598</v>
+      </c>
+      <c r="K28" s="8">
+        <v>4560.1111017061603</v>
+      </c>
+      <c r="L28" s="8">
+        <v>4153.8423706839003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="17">
+        <f>+G29/H29</f>
+        <v>8.5046459674432153</v>
+      </c>
+      <c r="C29" s="17">
+        <f>+I29/J29</f>
+        <v>3.853066661920808</v>
+      </c>
+      <c r="D29" s="17">
+        <f>+K29/L29</f>
+        <v>3.6801752448224061</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="8">
+        <v>7363.1102293806898</v>
+      </c>
+      <c r="H29" s="8">
+        <v>865.77504314318799</v>
+      </c>
+      <c r="I29" s="8">
+        <v>7553.0465392818696</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1960.26884609273</v>
+      </c>
+      <c r="K29" s="8">
+        <v>7537.5180298626701</v>
+      </c>
+      <c r="L29" s="8">
+        <v>2048.1410608005999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>2010</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38">
+        <v>56</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E793B56A-64B0-45A8-A291-AF4ACB6AF680}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1165,19 +2007,29 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBA8DF5-E296-4943-92C4-1F03F739FF93}">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D31"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1196,7 +2048,9 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1211,6 +2065,9 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1224,6 +2081,9 @@
       </c>
       <c r="D5" s="8">
         <v>4562.4925508076803</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1508,12 +2368,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B24841A-85AD-46FF-A007-DB4BCC9E3423}">
-  <dimension ref="A2:C27"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C27"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,17 +2381,23 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1541,8 +2407,20 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>2010</v>
+      </c>
+      <c r="G4">
+        <v>2020</v>
+      </c>
+      <c r="H4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1552,8 +2430,20 @@
       <c r="C5">
         <v>257.10000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="G5">
+        <v>154.4</v>
+      </c>
+      <c r="H5">
+        <v>189.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1563,8 +2453,20 @@
       <c r="C6">
         <v>85.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>85.3</v>
+      </c>
+      <c r="G6">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1574,8 +2476,20 @@
       <c r="C7">
         <v>462.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>462.7</v>
+      </c>
+      <c r="G7">
+        <v>130</v>
+      </c>
+      <c r="H7">
+        <v>131.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1585,8 +2499,20 @@
       <c r="C8">
         <v>418</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>418</v>
+      </c>
+      <c r="G8">
+        <v>164.2</v>
+      </c>
+      <c r="H8">
+        <v>152.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1596,18 +2522,31 @@
       <c r="C9">
         <v>281.39999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="G9">
+        <v>118</v>
+      </c>
+      <c r="H9">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1617,8 +2556,9 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1629,7 +2569,7 @@
         <v>154.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1640,7 +2580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1651,7 +2591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1662,7 +2602,7 @@
         <v>164.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1673,17 +2613,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1693,8 +2634,9 @@
       <c r="C22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +2647,7 @@
         <v>189.6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1716,7 +2658,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1727,7 +2669,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +2680,7 @@
         <v>152.1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1754,13 +2696,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C29A1E-9095-47FF-BD17-BB5FD2B49B1C}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2145,13 +3085,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204F9E02-C809-44C9-B104-0EA5D0DDC021}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/database/tables_results.xlsx
+++ b/database/tables_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815A54DD-0538-44CD-A099-1A7EF877F03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34216B7-7215-4385-BD43-0D5BFB08B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D125BDB0-4293-46E2-833F-A63E0CB3C726}"/>
   </bookViews>
@@ -322,10 +322,10 @@
     <t xml:space="preserve">0.284**  </t>
   </si>
   <si>
-    <t>Ratio Major SD to Minor SD</t>
-  </si>
-  <si>
     <t>Table not included</t>
+  </si>
+  <si>
+    <t>Ratio Major SD to Minor SD (RMM)</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -417,16 +417,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -745,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7017A30C-24AC-44BC-BDF2-E5CDCA1CEE10}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,31 +751,31 @@
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>2010</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>2020</v>
       </c>
       <c r="D3" s="4">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -791,6 +787,10 @@
       </c>
       <c r="D4" s="6">
         <v>798</v>
+      </c>
+      <c r="E4">
+        <f>+B4/C4</f>
+        <v>1.932934131736527</v>
       </c>
       <c r="F4">
         <f>+C4/B4</f>
@@ -800,8 +800,12 @@
         <f>+D4-C4</f>
         <v>-37</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="15">
+        <f t="shared" ref="H4:H5" si="0">+((C4/B4)-1)*100</f>
+        <v>-48.265179677819084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -814,16 +818,24 @@
       <c r="D5" s="6">
         <v>101</v>
       </c>
+      <c r="E5">
+        <f>+B5/C5</f>
+        <v>2.2000000000000002</v>
+      </c>
       <c r="F5">
-        <f t="shared" ref="F5:F8" si="0">+C5/B5</f>
+        <f t="shared" ref="F5:F8" si="1">+C5/B5</f>
         <v>0.45454545454545453</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G9" si="1">+D5-C5</f>
+        <f t="shared" ref="G5:G9" si="2">+D5-C5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="15">
+        <f t="shared" si="0"/>
+        <v>-54.54545454545454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -836,16 +848,28 @@
       <c r="D6" s="6">
         <v>383</v>
       </c>
+      <c r="E6">
+        <f>+B6/C6</f>
+        <v>3.8567639257294428</v>
+      </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25928473177441541</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="15">
+        <f>+((C6/B6)-1)*100</f>
+        <v>-74.071526822558468</v>
+      </c>
+      <c r="I6" s="6">
+        <f>+B6-C6</f>
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -858,16 +882,24 @@
       <c r="D7" s="6">
         <v>1192</v>
       </c>
+      <c r="E7">
+        <f>+B7/C7</f>
+        <v>2.811056105610561</v>
+      </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35573818608746699</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="15">
+        <f t="shared" ref="H7:H9" si="3">+((C7/B7)-1)*100</f>
+        <v>-64.426181391253294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -880,16 +912,24 @@
       <c r="D8" s="6">
         <v>314</v>
       </c>
+      <c r="E8">
+        <f>+B8/C8</f>
+        <v>1.8206896551724139</v>
+      </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5492424242424242</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="15">
+        <f t="shared" si="3"/>
+        <v>-45.075757575757578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,26 +950,30 @@
         <v>0.4272317999743141</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-26</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="15">
+        <f t="shared" si="3"/>
+        <v>-61.041118648760893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -943,7 +987,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -965,7 +1009,7 @@
         <v>Menor concentración</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -979,15 +1023,15 @@
         <v>0.18717758248999999</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ref="F15:F18" si="2">+D15-B15</f>
+        <f t="shared" ref="F15:F18" si="4">+D15-B15</f>
         <v>-9.5460709590000026E-2</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" ref="G15:G18" si="3">+IF(F15&gt;0,"Menor concentración", "Mayor concentración")</f>
+        <f t="shared" ref="G15:G18" si="5">+IF(F15&gt;0,"Menor concentración", "Mayor concentración")</f>
         <v>Mayor concentración</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1001,11 +1045,11 @@
         <v>0.19951699754999999</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.254669964E-2</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Menor concentración</v>
       </c>
     </row>
@@ -1023,11 +1067,11 @@
         <v>0.24100285189000001</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8847912950000018E-2</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Menor concentración</v>
       </c>
     </row>
@@ -1045,11 +1089,11 @@
         <v>0.13927430689</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.6553851799999999E-3</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Mayor concentración</v>
       </c>
     </row>
@@ -1070,7 +1114,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" s="4">
         <v>2010</v>
@@ -1083,7 +1127,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="12">
@@ -1095,7 +1139,7 @@
       <c r="D24" s="12">
         <v>2022</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -1121,15 +1165,15 @@
       <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="15">
         <f>+G25/H25</f>
         <v>3.6088940398326712</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="15">
         <f>+I25/J25</f>
         <v>3.2183714592073613</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="15">
         <f>+K25/L25</f>
         <v>3.1534368106743886</v>
       </c>
@@ -1159,15 +1203,15 @@
       <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <f>+G26/H26</f>
         <v>6.6120597361743743</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="15">
         <f>+I26/J26</f>
         <v>4.8599829333506213</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="15">
         <f>+K26/L26</f>
         <v>4.7597309230513662</v>
       </c>
@@ -1197,15 +1241,15 @@
       <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="15">
         <f>+G27/H27</f>
         <v>2.7032296691042403</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="15">
         <f>+I27/J27</f>
         <v>3.188142256638129</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="15">
         <f>+K27/L27</f>
         <v>3.3228358936796218</v>
       </c>
@@ -1235,15 +1279,15 @@
       <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="15">
         <f>+G28/H28</f>
         <v>1.275621476008564</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="15">
         <f>+I28/J28</f>
         <v>1.100724977054609</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="15">
         <f>+K28/L28</f>
         <v>1.0978055243235845</v>
       </c>
@@ -1273,15 +1317,15 @@
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="15">
         <f>+G29/H29</f>
         <v>8.5046459674432153</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="15">
         <f>+I29/J29</f>
         <v>3.853066661920808</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="15">
         <f>+K29/L29</f>
         <v>3.6801752448224061</v>
       </c>
@@ -1317,7 +1361,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1337,7 +1381,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1493,6 +1537,18 @@
       <c r="D61" s="11"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E4:E8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2029,7 +2085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBA8DF5-E296-4943-92C4-1F03F739FF93}">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2048,7 +2106,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2373,7 +2431,7 @@
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
